--- a/media/output/result/N/complex/weighted/50% 0% 50%/bpic2012_declined_Ncomplex_evaluation_weighted_edit_distance50.0%,0%,50.0%.xlsx
+++ b/media/output/result/N/complex/weighted/50% 0% 50%/bpic2012_declined_Ncomplex_evaluation_weighted_edit_distance50.0%,0%,50.0%.xlsx
@@ -1404,10 +1404,10 @@
         <v>509</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.8271119842829077</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.9053763440860215</v>
       </c>
     </row>
     <row r="35">
@@ -1433,10 +1433,10 @@
         <v>483</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1445,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.8364389233954451</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.9109357384441938</v>
       </c>
     </row>
     <row r="36">
